--- a/common/信息表数据字典.xlsx
+++ b/common/信息表数据字典.xlsx
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>serial_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int(5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,18 +90,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>identity_card</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>身份证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dormitory_address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,26 +102,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>is_join_army</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否参军（0否|1是|2已报名）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>origin_of_student</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生源地</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>origin_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar（4）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,10 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>phone_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int(11)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,10 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>drop_out_history</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(256)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,10 +190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>part_time_job</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>兼职记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,10 +219,6 @@
   </si>
   <si>
     <t>是否被警方传唤及原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sfbxxlrzdgzdx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -340,6 +300,46 @@
   <si>
     <t>就业情况（就业单位）</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>serial_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_army</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>origin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop_out_history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>job</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sfbxxlrzdgzdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -729,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -755,13 +755,13 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -777,333 +777,333 @@
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
